--- a/brakes_case_dataset.xlsx
+++ b/brakes_case_dataset.xlsx
@@ -964,7 +964,7 @@
         <v>38.98035213422938</v>
       </c>
       <c r="V6" t="n">
-        <v>20.99571317495105</v>
+        <v>149.5872786382236</v>
       </c>
       <c r="W6" t="n">
         <v>9.204899727359097</v>
@@ -3482,7 +3482,7 @@
         <v>8.922350599759145</v>
       </c>
       <c r="N37" t="n">
-        <v>11.18249542019813</v>
+        <v>200</v>
       </c>
       <c r="O37" t="n">
         <v>5.803766018987617</v>
@@ -5930,7 +5930,7 @@
         <v>55.90412763325321</v>
       </c>
       <c r="J67" t="n">
-        <v>53.29510632078864</v>
+        <v>559.1751323584408</v>
       </c>
       <c r="K67" t="n">
         <v>11.66548031938292</v>
@@ -5966,7 +5966,7 @@
         <v>31.54461351661996</v>
       </c>
       <c r="V67" t="n">
-        <v>14.16533990914876</v>
+        <v>149.5872786382236</v>
       </c>
       <c r="W67" t="n">
         <v>24.82894045164387</v>
@@ -6337,7 +6337,7 @@
         <v>90.39594435288333</v>
       </c>
       <c r="I72" t="n">
-        <v>91.20705518462469</v>
+        <v>397.7681031525805</v>
       </c>
       <c r="J72" t="n">
         <v>92.56775307236342</v>
@@ -6601,7 +6601,7 @@
         <v>6.515521601953254</v>
       </c>
       <c r="O75" t="n">
-        <v>25.37469652899075</v>
+        <v>200</v>
       </c>
       <c r="P75" t="n">
         <v>29.43878419221446</v>
@@ -7898,7 +7898,7 @@
         <v>87.34842983932145</v>
       </c>
       <c r="J91" t="n">
-        <v>70.68416656399916</v>
+        <v>559.1751323584408</v>
       </c>
       <c r="K91" t="n">
         <v>33.22184957023008</v>
@@ -8812,7 +8812,7 @@
         <v>31.19669237705429</v>
       </c>
       <c r="N102" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O102" t="n">
         <v>11.01390242958943</v>
@@ -9416,7 +9416,7 @@
         <v>44.8727303388443</v>
       </c>
       <c r="X109" t="n">
-        <v>7.249999999999999</v>
+        <v>149.2674340136841</v>
       </c>
       <c r="Y109" t="n">
         <v>47.73805965982611</v>
@@ -9617,7 +9617,7 @@
         <v>76.22558338575907</v>
       </c>
       <c r="I112" t="n">
-        <v>82.17609039045627</v>
+        <v>530.3574708701074</v>
       </c>
       <c r="J112" t="n">
         <v>56.43059018781595</v>
@@ -11217,7 +11217,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="W131" t="n">
-        <v>3.768325376913213</v>
+        <v>199.6041432343557</v>
       </c>
       <c r="X131" t="n">
         <v>4.455773197194066</v>
@@ -14959,7 +14959,7 @@
         <v>6.488888888888887</v>
       </c>
       <c r="M177" t="n">
-        <v>15.43781822899163</v>
+        <v>150</v>
       </c>
       <c r="N177" t="n">
         <v>23.2319879699958</v>
@@ -18081,7 +18081,7 @@
         <v>45</v>
       </c>
       <c r="O215" t="n">
-        <v>36.74676303176735</v>
+        <v>200</v>
       </c>
       <c r="P215" t="n">
         <v>30</v>
@@ -19092,7 +19092,7 @@
         <v>18.71083504503794</v>
       </c>
       <c r="X227" t="n">
-        <v>31.11805427594205</v>
+        <v>149.2674340136841</v>
       </c>
       <c r="Y227" t="n">
         <v>37.70132313476923</v>
@@ -19417,7 +19417,7 @@
         <v>30.65495546834591</v>
       </c>
       <c r="W231" t="n">
-        <v>22.59285846797605</v>
+        <v>199.6041432343557</v>
       </c>
       <c r="X231" t="n">
         <v>7.70594458609304</v>
@@ -23487,7 +23487,7 @@
         <v>17.62071326428638</v>
       </c>
       <c r="M281" t="n">
-        <v>41.33807026861117</v>
+        <v>150</v>
       </c>
       <c r="N281" t="n">
         <v>20.75753482023567</v>
